--- a/htail/po_P2012_seconda iterazione.xlsx
+++ b/htail/po_P2012_seconda iterazione.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIRCRAFT DESIGN\From github\Aircraft-Design\htail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E758CA-439B-4000-AE26-FAA709CF9522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D23825-92CF-4C07-9C50-EF2A509CC626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,34 +1048,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2363365501281427E-2</c:v>
+                  <c:v>-5.4865718122470486E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.38452673100256285</c:v>
+                  <c:v>-0.32953143624494097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.68669009650384416</c:v>
+                  <c:v>-0.60419715436741128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.98885346200512569</c:v>
+                  <c:v>-0.87886287248988193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2910168275064071</c:v>
+                  <c:v>-1.1535285906123522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5931801930076883</c:v>
+                  <c:v>-1.4281943087348226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.89534355850897</c:v>
+                  <c:v>-1.7028600268572933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1975069240102512</c:v>
+                  <c:v>-1.9775257449797639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.499670289511533</c:v>
+                  <c:v>-2.2521914631022346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.801833655012814</c:v>
+                  <c:v>-2.5268571812247043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,34 +1148,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.3611111574086119E-2</c:v>
+                  <c:v>-4.8614108174473758E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.36702222314817223</c:v>
+                  <c:v>-0.31702821634894751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.66043333472225829</c:v>
+                  <c:v>-0.58544232452342115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.95384444629634446</c:v>
+                  <c:v>-0.85385643269789502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2472555578704305</c:v>
+                  <c:v>-1.1222705408723688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5406666694445166</c:v>
+                  <c:v>-1.3906846490468423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8340777810186026</c:v>
+                  <c:v>-1.6590987572213163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1274888925926891</c:v>
+                  <c:v>-1.92751286539579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.420900004166775</c:v>
+                  <c:v>-2.1959269735702636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.7143111157408608</c:v>
+                  <c:v>-2.4643410817447373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,34 +1248,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9867873355672043E-2</c:v>
+                  <c:v>-6.736893801846372E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.41953574671134408</c:v>
+                  <c:v>-0.35453787603692744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.7392036200670159</c:v>
+                  <c:v>-0.64170681405539109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0588714934226882</c:v>
+                  <c:v>-0.92887575207385487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.3785393667783601</c:v>
+                  <c:v>-1.2160446900923187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6982072401340318</c:v>
+                  <c:v>-1.5032136281107822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0178751134897039</c:v>
+                  <c:v>-1.7903825661292461</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.3375429868453761</c:v>
+                  <c:v>-2.0775515041477099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.6572108602010482</c:v>
+                  <c:v>-2.3647204421661741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.9768787335567204</c:v>
+                  <c:v>-2.6518893801846373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,34 +1569,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2363365501281427E-2</c:v>
+                  <c:v>-5.4865718122470486E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.38452673100256285</c:v>
+                  <c:v>-0.32953143624494097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.68669009650384416</c:v>
+                  <c:v>-0.60419715436741128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.98885346200512569</c:v>
+                  <c:v>-0.87886287248988193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2910168275064071</c:v>
+                  <c:v>-1.1535285906123522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5931801930076883</c:v>
+                  <c:v>-1.4281943087348226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.89534355850897</c:v>
+                  <c:v>-1.7028600268572933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1975069240102512</c:v>
+                  <c:v>-1.9775257449797639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.499670289511533</c:v>
+                  <c:v>-2.2521914631022346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.801833655012814</c:v>
+                  <c:v>-2.5268571812247043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,34 +2003,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2363365501281427E-2</c:v>
+                  <c:v>-5.4865718122470486E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.38452673100256285</c:v>
+                  <c:v>-0.32953143624494097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.68669009650384416</c:v>
+                  <c:v>-0.60419715436741128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.98885346200512569</c:v>
+                  <c:v>-0.87886287248988193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2910168275064071</c:v>
+                  <c:v>-1.1535285906123522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5931801930076883</c:v>
+                  <c:v>-1.4281943087348226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.89534355850897</c:v>
+                  <c:v>-1.7028600268572933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1975069240102512</c:v>
+                  <c:v>-1.9775257449797639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.499670289511533</c:v>
+                  <c:v>-2.2521914631022346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.801833655012814</c:v>
+                  <c:v>-2.5268571812247043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,7 +2929,7 @@
         <v>127</v>
       </c>
       <c r="B16" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
@@ -3066,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="K19" s="2">
         <f>I31</f>
-        <v>-3.2990527214845882</v>
+        <v>-2.1677537075859945</v>
       </c>
       <c r="L19" t="s">
         <v>165</v>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="K24" s="5">
         <f>J31</f>
-        <v>-13.49347278166443</v>
+        <v>-12.944347867052977</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>149</v>
@@ -3659,11 +3659,11 @@
       </c>
       <c r="I31" s="11">
         <f>Velivolo!$B$22-(Velivolo!$B$24/$K$18+H31/$K$18*Velivolo!$B$16)*$K$8</f>
-        <v>-3.2990527214845882</v>
+        <v>-2.1677537075859945</v>
       </c>
       <c r="J31" s="14">
         <f>0.9/$K$21*(I31+$K$20*$B$12-Velivolo!$B$23)</f>
-        <v>-13.49347278166443</v>
+        <v>-12.944347867052977</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>92</v>
@@ -3710,11 +3710,11 @@
       </c>
       <c r="I32" s="11">
         <f>Velivolo!$B$22-(Velivolo!$B$24/$K$18+H32/$K$18*Velivolo!$B$16)*$K$8</f>
-        <v>-2.9389704169578401</v>
+        <v>-1.9105520614954585</v>
       </c>
       <c r="J32" s="14">
         <f>0.9/$K$21*(I32+$K$20*$B$12-Velivolo!$B$23)</f>
-        <v>-13.3186912585683</v>
+        <v>-12.819503921984312</v>
       </c>
       <c r="K32" s="2">
         <f>$K$17-$K$16/$K$21+$K$23*L32*($K$24+$K$25)</f>
@@ -3765,15 +3765,15 @@
       </c>
       <c r="I33" s="11">
         <f>Velivolo!$B$22-(Velivolo!$B$24/$K$18+H33/$K$18*Velivolo!$B$16)*$K$8</f>
-        <v>-4.0192173305380861</v>
+        <v>-2.6821569997670638</v>
       </c>
       <c r="J33" s="14">
         <f>0.9/$K$21*(I33+$K$20*$B$12-Velivolo!$B$23)</f>
-        <v>-13.843035827856689</v>
+        <v>-13.194035757190305</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" ref="K33:K42" si="2">$K$17-$K$16/$K$21+$K$23*L33*($K$24+$K$25)</f>
-        <v>-8.2363365501281427E-2</v>
+        <v>-5.4865718122470486E-2</v>
       </c>
       <c r="L33" s="8">
         <v>0.1</v>
@@ -3784,11 +3784,11 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" ref="N33:N42" si="3">$K$17-$K$16/$K$21+$K$23*L33*($J$32+$K$25)</f>
-        <v>-7.3611111574086119E-2</v>
+        <v>-4.8614108174473758E-2</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" ref="O33:O42" si="4">$K$17-$K$16/$K$21+$K$23*L33*($J$33+$K$25)</f>
-        <v>-9.9867873355672043E-2</v>
+        <v>-6.736893801846372E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>-0.38452673100256285</v>
+        <v>-0.32953143624494097</v>
       </c>
       <c r="L34" s="8">
         <v>0.2</v>
@@ -3816,11 +3816,11 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="3"/>
-        <v>-0.36702222314817223</v>
+        <v>-0.31702821634894751</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-0.41953574671134408</v>
+        <v>-0.35453787603692744</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>-0.68669009650384416</v>
+        <v>-0.60419715436741128</v>
       </c>
       <c r="L35" s="8">
         <v>0.3</v>
@@ -3851,11 +3851,11 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="3"/>
-        <v>-0.66043333472225829</v>
+        <v>-0.58544232452342115</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-0.7392036200670159</v>
+        <v>-0.64170681405539109</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="I36" s="5">
         <f>$K$23*(J31+$K$25)</f>
-        <v>-3.0216336550128142</v>
+        <v>-2.7466571812247045</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="2"/>
-        <v>-0.98885346200512569</v>
+        <v>-0.87886287248988193</v>
       </c>
       <c r="L36" s="8">
         <v>0.4</v>
@@ -3890,11 +3890,11 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="3"/>
-        <v>-0.95384444629634446</v>
+        <v>-0.85385643269789502</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-1.0588714934226882</v>
+        <v>-0.92887575207385487</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3914,11 +3914,11 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" ref="I37:I38" si="5">$K$23*(J32+$K$25)</f>
-        <v>-2.934111115740861</v>
+        <v>-2.6841410817447375</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2910168275064071</v>
+        <v>-1.1535285906123522</v>
       </c>
       <c r="L37" s="8">
         <v>0.5</v>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="3"/>
-        <v>-1.2472555578704305</v>
+        <v>-1.1222705408723688</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-1.3785393667783601</v>
+        <v>-1.2160446900923187</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="5"/>
-        <v>-3.1966787335567202</v>
+        <v>-2.8716893801846375</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5931801930076883</v>
+        <v>-1.4281943087348226</v>
       </c>
       <c r="L38" s="8">
         <v>0.6</v>
@@ -3968,11 +3968,11 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="3"/>
-        <v>-1.5406666694445166</v>
+        <v>-1.3906846490468423</v>
       </c>
       <c r="O38" s="2">
         <f>$K$17-$K$16/$K$21+$K$23*L38*($J$33+$K$25)</f>
-        <v>-1.6982072401340318</v>
+        <v>-1.5032136281107822</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="K39" s="2">
         <f t="shared" si="2"/>
-        <v>-1.89534355850897</v>
+        <v>-1.7028600268572933</v>
       </c>
       <c r="L39" s="8">
         <v>0.7</v>
@@ -4000,11 +4000,11 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="3"/>
-        <v>-1.8340777810186026</v>
+        <v>-1.6590987572213163</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-2.0178751134897039</v>
+        <v>-1.7903825661292461</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="K40" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1975069240102512</v>
+        <v>-1.9775257449797639</v>
       </c>
       <c r="L40" s="8">
         <v>0.8</v>
@@ -4032,11 +4032,11 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="3"/>
-        <v>-2.1274888925926891</v>
+        <v>-1.92751286539579</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-2.3375429868453761</v>
+        <v>-2.0775515041477099</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="K41" s="2">
         <f t="shared" si="2"/>
-        <v>-2.499670289511533</v>
+        <v>-2.2521914631022346</v>
       </c>
       <c r="L41" s="8">
         <v>0.9</v>
@@ -4067,11 +4067,11 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" si="3"/>
-        <v>-2.420900004166775</v>
+        <v>-2.1959269735702636</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-2.6572108602010482</v>
+        <v>-2.3647204421661741</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="K42" s="2">
         <f t="shared" si="2"/>
-        <v>-2.801833655012814</v>
+        <v>-2.5268571812247043</v>
       </c>
       <c r="L42" s="8">
         <v>1</v>
@@ -4103,11 +4103,11 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="3"/>
-        <v>-2.7143111157408608</v>
+        <v>-2.4643410817447373</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-2.9768787335567204</v>
+        <v>-2.6518893801846373</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
